--- a/translation/xlsx/_tsum_016.xlsx
+++ b/translation/xlsx/_tsum_016.xlsx
@@ -3324,7 +3324,7 @@
     <t>And the punishment by that god, namely 'the curse of Oyashiro-sama' that people have been so afraid of, will turn out to have just been the symptoms of an infectious disease.</t>
   </si>
   <si>
-    <t xml:space="preserve">더구나 신벌로서 두려워하던 "오야시로님의 신벌"은 신이 내리는 벌은커녕 단순한 전염병의 증상이었던 셈이다. </t>
+    <t xml:space="preserve">더구나 신벌로서 두려워하던 '오야시로님의 신벌'은 신이 내리는 벌은커녕 단순한 전염병의 증상이었던 셈이다. </t>
   </si>
   <si>
     <t xml:space="preserve">더구나 신벌로서 두려워하던 "오야시로 님의 신벌"은 신이 내리는 벌이기는 커녕 단순한 전염병의 발증이었던 셈이 된다. </t>
@@ -3354,7 +3354,7 @@
     <t xml:space="preserve"> That's what 'dethroning god' would mean...</t>
   </si>
   <si>
-    <t xml:space="preserve">.........이게 처음에 레나가 말했던 "신을 모독한다"라는 말의 의미인가....... </t>
+    <t xml:space="preserve">.........이게 처음에 레나가 말했던 '신을 모독한다'는 말의 의미인가....... </t>
   </si>
   <si>
     <t xml:space="preserve">……………이것이 처음에 레나가 말했던 "신을 모독하게 된다"라는 의미인가………. </t>
@@ -4317,7 +4317,7 @@
     <t>그래서 이 연구는 광신자들의 우두머리만이 아는 비밀 연구라고 생각한다.</t>
   </si>
   <si>
-    <t xml:space="preserve">표면상으로는 신앙을 부흥시키려 하고 있지만 뒤에서는 신앙의 정체를 매우 냉정하게 이해하고 있을 뿐만 아니라 '신의 위엄'을 자기 손으로 부활시키려 하고 있어.\" </t>
+    <t>彼らは表向きは信仰を盛り上げているけど、その裏では信仰の正体について極めて冷静に理解していて、神の業を自らの手で復活させようとしている。」</t>
   </si>
   <si>
     <t>From the outside, they look like they're praising their god, but they actually understand its true identity, and they're trying to revive its supernatural power with their own hands.\"</t>
@@ -14272,7 +14272,7 @@
       <c r="B305" s="12" t="s">
         <v>1433</v>
       </c>
-      <c r="C305" s="1" t="s">
+      <c r="C305" s="12" t="s">
         <v>1434</v>
       </c>
       <c r="D305" s="6" t="s">

--- a/translation/xlsx/_tsum_016.xlsx
+++ b/translation/xlsx/_tsum_016.xlsx
@@ -4839,7 +4839,7 @@
     <t xml:space="preserve"> after five years of research.</t>
   </si>
   <si>
-    <t xml:space="preserve">오야시로님의 신벌'을 재현할 수 있게 됐다는 이야기다. </t>
+    <t xml:space="preserve"> '오야시로님의 신벌'을 재현할 수 있게 됐다는 이야기다. </t>
   </si>
   <si>
     <t xml:space="preserve">"오야시로 님의 저주"를 재현할 수 있다는 이야기이다. </t>
@@ -7282,7 +7282,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -7344,9 +7344,6 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -15034,7 +15031,7 @@
       <c r="C340" s="1" t="s">
         <v>1606</v>
       </c>
-      <c r="D340" s="24" t="s">
+      <c r="D340" s="18" t="s">
         <v>1607</v>
       </c>
       <c r="E340" s="1"/>
@@ -16611,7 +16608,7 @@
       </c>
       <c r="E411" s="1"/>
       <c r="F411" s="7"/>
-      <c r="H411" s="25"/>
+      <c r="H411" s="24"/>
       <c r="I411" s="4" t="s">
         <v>1950</v>
       </c>
@@ -18887,7 +18884,7 @@
     </row>
     <row r="539" ht="15.75" customHeight="1">
       <c r="F539" s="7"/>
-      <c r="H539" s="25"/>
+      <c r="H539" s="24"/>
       <c r="I539" s="4"/>
       <c r="J539" s="4"/>
       <c r="K539" s="4"/>
@@ -19769,7 +19766,7 @@
     </row>
     <row r="665" ht="15.75" customHeight="1">
       <c r="F665" s="7"/>
-      <c r="H665" s="25"/>
+      <c r="H665" s="24"/>
       <c r="I665" s="4"/>
       <c r="J665" s="4"/>
       <c r="K665" s="4"/>
